--- a/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.1764060460613053</v>
+        <v>-0.001902650469230521</v>
       </c>
       <c r="C2">
-        <v>0.284473189870437</v>
+        <v>0.002300596213788058</v>
       </c>
       <c r="D2">
-        <v>-0.2182967478262555</v>
+        <v>-0.001950647289008482</v>
       </c>
       <c r="E2">
-        <v>-0.356928141267331</v>
+        <v>-0.004865178040332058</v>
       </c>
       <c r="F2">
-        <v>-0.3400986032164414</v>
+        <v>-0.002975079311835823</v>
       </c>
       <c r="G2">
-        <v>-0.3060009381454689</v>
+        <v>-0.00365136916413202</v>
       </c>
       <c r="H2">
-        <v>-0.08671913082102307</v>
+        <v>-0.001596977608692747</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.2010981960743832</v>
+        <v>-0.02039549759162547</v>
       </c>
       <c r="C3">
-        <v>0.3772262209389151</v>
+        <v>0.02136306589361992</v>
       </c>
       <c r="D3">
-        <v>-0.2377510935214183</v>
+        <v>-0.02403465102630784</v>
       </c>
       <c r="E3">
-        <v>-0.4534678774031068</v>
+        <v>-0.04123440485964754</v>
       </c>
       <c r="F3">
-        <v>-0.2574839390989372</v>
+        <v>-0.02346154986912494</v>
       </c>
       <c r="G3">
-        <v>-0.2778777053942482</v>
+        <v>-0.04091603409146885</v>
       </c>
       <c r="H3">
-        <v>-0.04531531192340549</v>
+        <v>-0.02405940766866156</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.104714796912704</v>
+        <v>-0.1610090126207598</v>
       </c>
       <c r="C4">
-        <v>0.1282356588194201</v>
+        <v>0.3033866243029462</v>
       </c>
       <c r="D4">
-        <v>-0.07924600015741562</v>
+        <v>-0.3021757834118457</v>
       </c>
       <c r="E4">
-        <v>-0.2316191855316207</v>
+        <v>-0.3380591391096016</v>
       </c>
       <c r="F4">
-        <v>-0.1897444475575209</v>
+        <v>-0.305937893136659</v>
       </c>
       <c r="G4">
-        <v>-0.1893876539938206</v>
+        <v>-0.3164816512541216</v>
       </c>
       <c r="H4">
-        <v>-0.05560923225298203</v>
+        <v>0.05263508233296376</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.01960647690111583</v>
+        <v>-0.002152471520385547</v>
       </c>
       <c r="C5">
-        <v>0.02464561563844195</v>
+        <v>0.00227934223386755</v>
       </c>
       <c r="D5">
-        <v>-0.01765318902280433</v>
+        <v>-0.002562118021283204</v>
       </c>
       <c r="E5">
-        <v>-0.04403292456125561</v>
+        <v>-0.005048786008411645</v>
       </c>
       <c r="F5">
-        <v>-0.02704430929759516</v>
+        <v>-0.003194682823199406</v>
       </c>
       <c r="G5">
-        <v>-0.04022803408187282</v>
+        <v>-0.003931921445940242</v>
       </c>
       <c r="H5">
-        <v>-0.0138024808895743</v>
+        <v>-0.001468308522607303</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.203424714861153</v>
+        <v>-0.001866318200811578</v>
       </c>
       <c r="C6">
-        <v>0.2107580755018363</v>
+        <v>0.002319863029254229</v>
       </c>
       <c r="D6">
-        <v>-0.2227581959753471</v>
+        <v>-0.002175202923931405</v>
       </c>
       <c r="E6">
-        <v>-0.4134292553317119</v>
+        <v>-0.005242631347526887</v>
       </c>
       <c r="F6">
-        <v>-0.353164868784171</v>
+        <v>-0.00257705178354427</v>
       </c>
       <c r="G6">
-        <v>-0.3843863467705579</v>
+        <v>-0.003120183473337233</v>
       </c>
       <c r="H6">
-        <v>-0.01795946670457799</v>
+        <v>-0.001553904833182898</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.002621364198272126</v>
+        <v>-0.2115004418867094</v>
       </c>
       <c r="C7">
-        <v>0.002473373856400795</v>
+        <v>0.3394682085745157</v>
       </c>
       <c r="D7">
-        <v>-0.002826808681610421</v>
+        <v>-0.09966068886880057</v>
       </c>
       <c r="E7">
-        <v>-0.005453451415026208</v>
+        <v>-0.3897697954580056</v>
       </c>
       <c r="F7">
-        <v>-0.002760746286279076</v>
+        <v>-0.3207205738347731</v>
       </c>
       <c r="G7">
-        <v>-0.004601762081335743</v>
+        <v>-0.4546307353906858</v>
       </c>
       <c r="H7">
-        <v>-0.002546061633535367</v>
+        <v>-0.04331180832835185</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.2489395924871032</v>
+        <v>-0.002317420329095905</v>
       </c>
       <c r="C8">
-        <v>0.4180011216962969</v>
+        <v>0.003055098401465318</v>
       </c>
       <c r="D8">
-        <v>-0.1773682730841468</v>
+        <v>-0.001532979327351524</v>
       </c>
       <c r="E8">
-        <v>-0.4225403956868324</v>
+        <v>-0.004572638522670632</v>
       </c>
       <c r="F8">
-        <v>-0.5050166339729449</v>
+        <v>-0.0032854915902817</v>
       </c>
       <c r="G8">
-        <v>-0.4895794274968501</v>
+        <v>-0.004701667227694806</v>
       </c>
       <c r="H8">
-        <v>-0.07758188465611686</v>
+        <v>-0.002112908359637962</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.1873939570910498</v>
+        <v>-0.1681035660931364</v>
       </c>
       <c r="C9">
-        <v>0.2822501409046598</v>
+        <v>0.3150527749052506</v>
       </c>
       <c r="D9">
-        <v>-0.2559100065399773</v>
+        <v>-0.2224620461072552</v>
       </c>
       <c r="E9">
-        <v>-0.284733772937136</v>
+        <v>-0.3797137093770616</v>
       </c>
       <c r="F9">
-        <v>-0.4026258242977933</v>
+        <v>-0.2758276824948172</v>
       </c>
       <c r="G9">
-        <v>-0.3215331087586574</v>
+        <v>-0.2515495101960175</v>
       </c>
       <c r="H9">
-        <v>-0.1430851488722234</v>
+        <v>-0.1568930877093387</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.01981817416039584</v>
+        <v>-0.002088056039224528</v>
       </c>
       <c r="C10">
-        <v>0.0143673053547784</v>
+        <v>0.002321620054371784</v>
       </c>
       <c r="D10">
-        <v>-0.02150870971118431</v>
+        <v>-0.002563718271477114</v>
       </c>
       <c r="E10">
-        <v>-0.04525623034998561</v>
+        <v>-0.004407472522048664</v>
       </c>
       <c r="F10">
-        <v>-0.03358654627953717</v>
+        <v>-0.002161610768118213</v>
       </c>
       <c r="G10">
-        <v>-0.03632404226313954</v>
+        <v>-0.004838448302765053</v>
       </c>
       <c r="H10">
-        <v>-0.01625732239838077</v>
+        <v>-0.001901495522006842</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.001674785011722553</v>
+        <v>-0.002063044372477838</v>
       </c>
       <c r="C11">
-        <v>0.002527750008182122</v>
+        <v>0.002444960339020978</v>
       </c>
       <c r="D11">
-        <v>-0.001079313867108332</v>
+        <v>-0.00161773753636747</v>
       </c>
       <c r="E11">
-        <v>-0.004500608225914869</v>
+        <v>-0.004779690226174907</v>
       </c>
       <c r="F11">
-        <v>-0.002232782301063082</v>
+        <v>-0.002408002384755155</v>
       </c>
       <c r="G11">
-        <v>-0.004015542698054124</v>
+        <v>-0.004532476033767148</v>
       </c>
       <c r="H11">
-        <v>-0.001318658876071677</v>
+        <v>-0.002134118953933436</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.260280449609907</v>
+        <v>-0.1295953017515871</v>
       </c>
       <c r="C12">
-        <v>0.4740739041625329</v>
+        <v>0.1414169385535005</v>
       </c>
       <c r="D12">
-        <v>-0.3740584582392549</v>
+        <v>-0.0899809996155599</v>
       </c>
       <c r="E12">
-        <v>-0.3148763648017899</v>
+        <v>-0.2689462872116498</v>
       </c>
       <c r="F12">
-        <v>-0.6567758956824917</v>
+        <v>-0.1407495106956299</v>
       </c>
       <c r="G12">
-        <v>-0.4767620071142036</v>
+        <v>-0.2335980101135954</v>
       </c>
       <c r="H12">
-        <v>0.03642500572848722</v>
+        <v>-0.09594759558704549</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.002475349001871157</v>
+        <v>-0.002727833630845352</v>
       </c>
       <c r="C13">
-        <v>0.001891678551453789</v>
+        <v>0.000787588559528697</v>
       </c>
       <c r="D13">
-        <v>-0.002636729885776611</v>
+        <v>-0.003410138724487696</v>
       </c>
       <c r="E13">
-        <v>-0.005640639503053843</v>
+        <v>-0.004349911676569442</v>
       </c>
       <c r="F13">
-        <v>-0.002686455385417206</v>
+        <v>-0.003088371579330431</v>
       </c>
       <c r="G13">
-        <v>-0.00452193594614705</v>
+        <v>-0.005834123488930809</v>
       </c>
       <c r="H13">
-        <v>-0.002181305897367262</v>
+        <v>-0.002749139406119507</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.001695495528501296</v>
+        <v>-0.001694025330311624</v>
       </c>
       <c r="C14">
-        <v>0.001850590281107233</v>
+        <v>0.002571646832454868</v>
       </c>
       <c r="D14">
-        <v>-0.002211247248695719</v>
+        <v>-0.00183535057638657</v>
       </c>
       <c r="E14">
-        <v>-0.003745672575619786</v>
+        <v>-0.004958743780872843</v>
       </c>
       <c r="F14">
-        <v>-0.003350912953405791</v>
+        <v>-0.002216962100403599</v>
       </c>
       <c r="G14">
-        <v>-0.003876365891437859</v>
+        <v>-0.003361043292071613</v>
       </c>
       <c r="H14">
-        <v>-0.001603586047774949</v>
+        <v>-0.0006626568015514622</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.2717441909404523</v>
+        <v>-0.002092639340009642</v>
       </c>
       <c r="C15">
-        <v>0.2888727478615379</v>
+        <v>0.002727505788097865</v>
       </c>
       <c r="D15">
-        <v>-0.2933564669450521</v>
+        <v>-0.001547274162869341</v>
       </c>
       <c r="E15">
-        <v>-0.5743287080774209</v>
+        <v>-0.004266665774542468</v>
       </c>
       <c r="F15">
-        <v>-0.4023627450969348</v>
+        <v>-0.003282517742473589</v>
       </c>
       <c r="G15">
-        <v>-0.3670410909871016</v>
+        <v>-0.004552519291406589</v>
       </c>
       <c r="H15">
-        <v>-0.08813010973901109</v>
+        <v>-0.001921825491010975</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.1047052766795017</v>
+        <v>-0.001755390078666118</v>
       </c>
       <c r="C16">
-        <v>0.1234758378985179</v>
+        <v>0.002044518728174508</v>
       </c>
       <c r="D16">
-        <v>-0.09285059769322487</v>
+        <v>-0.001310336502240045</v>
       </c>
       <c r="E16">
-        <v>-0.2403269679413324</v>
+        <v>-0.004412984074536588</v>
       </c>
       <c r="F16">
-        <v>-0.1750449063566423</v>
+        <v>-0.002450650073091148</v>
       </c>
       <c r="G16">
-        <v>-0.1891905417312654</v>
+        <v>-0.004117930360560735</v>
       </c>
       <c r="H16">
-        <v>-0.05701478646033621</v>
+        <v>-0.002169167571064912</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.3002076690067872</v>
+        <v>-0.001751798427887241</v>
       </c>
       <c r="C17">
-        <v>0.5391389733143356</v>
+        <v>0.001619298299810947</v>
       </c>
       <c r="D17">
-        <v>-0.4851519153944644</v>
+        <v>-0.001612294578899055</v>
       </c>
       <c r="E17">
-        <v>-0.478364911317851</v>
+        <v>-0.004447659139159073</v>
       </c>
       <c r="F17">
-        <v>-0.454865262195731</v>
+        <v>-0.003326261206891599</v>
       </c>
       <c r="G17">
-        <v>-0.5203492057389864</v>
+        <v>-0.003761894869166327</v>
       </c>
       <c r="H17">
-        <v>-0.003112522714759238</v>
+        <v>-0.001505464073665684</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.00204834947775772</v>
+        <v>-0.1962654537204404</v>
       </c>
       <c r="C18">
-        <v>0.002175661095058207</v>
+        <v>0.3277452953596343</v>
       </c>
       <c r="D18">
-        <v>-0.001421380880714568</v>
+        <v>-0.2833999500122167</v>
       </c>
       <c r="E18">
-        <v>-0.005247566072195863</v>
+        <v>-0.3939367658480916</v>
       </c>
       <c r="F18">
-        <v>-0.003351605085191118</v>
+        <v>-0.3004174074014219</v>
       </c>
       <c r="G18">
-        <v>-0.003831530173029824</v>
+        <v>-0.337211936024329</v>
       </c>
       <c r="H18">
-        <v>-0.001293515282651813</v>
+        <v>0.01093001973572053</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.002041228120550072</v>
+        <v>-0.002182038163459194</v>
       </c>
       <c r="C19">
-        <v>0.002408375146621525</v>
+        <v>0.002119994617704711</v>
       </c>
       <c r="D19">
-        <v>-0.002002149234375904</v>
+        <v>-0.002224029338273615</v>
       </c>
       <c r="E19">
-        <v>-0.005195268937939472</v>
+        <v>-0.004778468475013497</v>
       </c>
       <c r="F19">
-        <v>-0.002441592790664367</v>
+        <v>-0.003784304959344793</v>
       </c>
       <c r="G19">
-        <v>-0.003775032667482966</v>
+        <v>-0.004168449727567592</v>
       </c>
       <c r="H19">
-        <v>-0.002162343742769689</v>
+        <v>-0.00139895461626889</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.2306355980438537</v>
+        <v>-0.1044051807560237</v>
       </c>
       <c r="C20">
-        <v>0.2339167127454252</v>
+        <v>0.1327861808000531</v>
       </c>
       <c r="D20">
-        <v>-0.09425344951021755</v>
+        <v>-0.1523366742531275</v>
       </c>
       <c r="E20">
-        <v>-0.5208381978257312</v>
+        <v>-0.2362774998225357</v>
       </c>
       <c r="F20">
-        <v>-0.4618690926318039</v>
+        <v>-0.1458252048435744</v>
       </c>
       <c r="G20">
-        <v>-0.3483986304346276</v>
+        <v>-0.1607488590698594</v>
       </c>
       <c r="H20">
-        <v>-0.07532147858316375</v>
+        <v>-0.08104823417329961</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.1017981621914157</v>
+        <v>-0.02082986075257167</v>
       </c>
       <c r="C21">
-        <v>0.1142785866483774</v>
+        <v>0.02137856035140154</v>
       </c>
       <c r="D21">
-        <v>-0.09560838813676037</v>
+        <v>-0.01437288019667059</v>
       </c>
       <c r="E21">
-        <v>-0.2385391810507648</v>
+        <v>-0.05150456976177249</v>
       </c>
       <c r="F21">
-        <v>-0.1749368782937391</v>
+        <v>-0.02599295479413908</v>
       </c>
       <c r="G21">
-        <v>-0.1839258556407928</v>
+        <v>-0.03588266027819767</v>
       </c>
       <c r="H21">
-        <v>-0.06638867095101629</v>
+        <v>-0.02042611919717841</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.1228787169760512</v>
+        <v>-0.002598410524319835</v>
       </c>
       <c r="C22">
-        <v>0.1285225970122154</v>
+        <v>0.002530623543946044</v>
       </c>
       <c r="D22">
-        <v>-0.09197017186605992</v>
+        <v>-0.002765975271769713</v>
       </c>
       <c r="E22">
-        <v>-0.2605751511700572</v>
+        <v>-0.005233372188866096</v>
       </c>
       <c r="F22">
-        <v>-0.1693880729753956</v>
+        <v>-0.002552811588751587</v>
       </c>
       <c r="G22">
-        <v>-0.2295320077302823</v>
+        <v>-0.004698301098519172</v>
       </c>
       <c r="H22">
-        <v>-0.02955061505636567</v>
+        <v>-0.002894502081446793</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.1826954633417034</v>
+        <v>-0.1012539276697725</v>
       </c>
       <c r="C23">
-        <v>0.2211992901379164</v>
+        <v>0.07242749342097049</v>
       </c>
       <c r="D23">
-        <v>-0.107441236777168</v>
+        <v>-0.09751927244374367</v>
       </c>
       <c r="E23">
-        <v>-0.3866745449462575</v>
+        <v>-0.2282349962995143</v>
       </c>
       <c r="F23">
-        <v>-0.408216961535005</v>
+        <v>-0.1651585874555158</v>
       </c>
       <c r="G23">
-        <v>-0.2788866640316442</v>
+        <v>-0.1959490874419612</v>
       </c>
       <c r="H23">
-        <v>-0.1177785881952752</v>
+        <v>-0.1097296932684597</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.079577430475139</v>
+        <v>-0.01813698228892607</v>
       </c>
       <c r="C24">
-        <v>0.1196367782577725</v>
+        <v>0.01601617586697205</v>
       </c>
       <c r="D24">
-        <v>-0.1058226511709788</v>
+        <v>-0.02418777720510694</v>
       </c>
       <c r="E24">
-        <v>-0.2549685092658543</v>
+        <v>-0.03759206217571143</v>
       </c>
       <c r="F24">
-        <v>-0.09973602471658824</v>
+        <v>-0.023207080651857</v>
       </c>
       <c r="G24">
-        <v>-0.1244853548144461</v>
+        <v>-0.03945728781670422</v>
       </c>
       <c r="H24">
-        <v>-0.03266110774969902</v>
+        <v>-0.0247992757391376</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.002327384963869538</v>
+        <v>-0.17246273267028</v>
       </c>
       <c r="C25">
-        <v>0.002573549173124641</v>
+        <v>0.2437587239304379</v>
       </c>
       <c r="D25">
-        <v>-0.001899663438676168</v>
+        <v>-0.2278445721690162</v>
       </c>
       <c r="E25">
-        <v>-0.004625801509818524</v>
+        <v>-0.4107780655373608</v>
       </c>
       <c r="F25">
-        <v>-0.002919274140201795</v>
+        <v>-0.352894524295727</v>
       </c>
       <c r="G25">
-        <v>-0.004914269112579173</v>
+        <v>-0.2144516017506902</v>
       </c>
       <c r="H25">
-        <v>-0.002386957566292045</v>
+        <v>-0.1179593129997214</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.0187839079772544</v>
+        <v>-0.09733299521504868</v>
       </c>
       <c r="C26">
-        <v>0.01626011247544144</v>
+        <v>0.08913847015340944</v>
       </c>
       <c r="D26">
-        <v>-0.01860521650451797</v>
+        <v>-0.07265299022643286</v>
       </c>
       <c r="E26">
-        <v>-0.04425544823799309</v>
+        <v>-0.2613716282107817</v>
       </c>
       <c r="F26">
-        <v>-0.02557565131450388</v>
+        <v>-0.1509458562183436</v>
       </c>
       <c r="G26">
-        <v>-0.04093627100973497</v>
+        <v>-0.1924082768452766</v>
       </c>
       <c r="H26">
-        <v>-0.01557912716561857</v>
+        <v>-0.0503639364625786</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.1381825747986079</v>
+        <v>-0.01421557780585273</v>
       </c>
       <c r="C27">
-        <v>0.1101583709935924</v>
+        <v>0.02065815581059258</v>
       </c>
       <c r="D27">
-        <v>-0.09050506982775376</v>
+        <v>-0.01649760240611513</v>
       </c>
       <c r="E27">
-        <v>-0.2712469497612515</v>
+        <v>-0.03929743238872328</v>
       </c>
       <c r="F27">
-        <v>-0.153147479692529</v>
+        <v>-0.02758640654270861</v>
       </c>
       <c r="G27">
-        <v>-0.2291355937785551</v>
+        <v>-0.02770023707648695</v>
       </c>
       <c r="H27">
-        <v>-0.1511898076929672</v>
+        <v>-0.0124528571835969</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.002008071391436386</v>
+        <v>-0.09098985044378002</v>
       </c>
       <c r="C28">
-        <v>0.003015809719670043</v>
+        <v>0.145695210510828</v>
       </c>
       <c r="D28">
-        <v>-0.001349838152014949</v>
+        <v>-0.06507659284824208</v>
       </c>
       <c r="E28">
-        <v>-0.004214237519866617</v>
+        <v>-0.1776354409866524</v>
       </c>
       <c r="F28">
-        <v>-0.002705339656651541</v>
+        <v>-0.161889500182568</v>
       </c>
       <c r="G28">
-        <v>-0.004344488713573514</v>
+        <v>-0.2002846213566478</v>
       </c>
       <c r="H28">
-        <v>-0.002408469540736873</v>
+        <v>-0.07895314237073849</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.2630117357632631</v>
+        <v>-0.0974623969686414</v>
       </c>
       <c r="C29">
-        <v>0.5930050389368846</v>
+        <v>0.1230562282233549</v>
       </c>
       <c r="D29">
-        <v>-0.360050510899633</v>
+        <v>-0.1100904844542812</v>
       </c>
       <c r="E29">
-        <v>-0.3266500705334712</v>
+        <v>-0.2350037314038638</v>
       </c>
       <c r="F29">
-        <v>-0.5762318791560571</v>
+        <v>-0.1609627386689331</v>
       </c>
       <c r="G29">
-        <v>-0.4612194941846862</v>
+        <v>-0.1774523276071252</v>
       </c>
       <c r="H29">
-        <v>0.01026100208310717</v>
+        <v>-0.05721616429767235</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.002200347073618045</v>
+        <v>-0.002063687734372517</v>
       </c>
       <c r="C30">
-        <v>0.002220811546116214</v>
+        <v>0.001985608499646273</v>
       </c>
       <c r="D30">
-        <v>-0.002113774321684938</v>
+        <v>-0.002048224879030987</v>
       </c>
       <c r="E30">
-        <v>-0.004646585797414556</v>
+        <v>-0.004708555901952495</v>
       </c>
       <c r="F30">
-        <v>-0.003783380809813745</v>
+        <v>-0.002795436828804812</v>
       </c>
       <c r="G30">
-        <v>-0.004171496542689571</v>
+        <v>-0.004150922491544584</v>
       </c>
       <c r="H30">
-        <v>-0.001939199947257129</v>
+        <v>-0.002640890783703161</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.2330483035482992</v>
+        <v>-0.09771307143664139</v>
       </c>
       <c r="C31">
-        <v>0.2996630743005258</v>
+        <v>0.1149702551005322</v>
       </c>
       <c r="D31">
-        <v>-0.2806093077209163</v>
+        <v>-0.04766565188552428</v>
       </c>
       <c r="E31">
-        <v>-0.4893451882611472</v>
+        <v>-0.2498197783639722</v>
       </c>
       <c r="F31">
-        <v>-0.3223369371535893</v>
+        <v>-0.1286978410861831</v>
       </c>
       <c r="G31">
-        <v>-0.2984088673661911</v>
+        <v>-0.2007437412998034</v>
       </c>
       <c r="H31">
-        <v>-0.0985188566032751</v>
+        <v>-0.08562023956249322</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.1832926443561411</v>
+        <v>-0.001874991625942901</v>
       </c>
       <c r="C32">
-        <v>0.1895462448681729</v>
+        <v>0.002094026563207288</v>
       </c>
       <c r="D32">
-        <v>-0.3008564514055638</v>
+        <v>-0.002221441047676869</v>
       </c>
       <c r="E32">
-        <v>-0.44488664767018</v>
+        <v>-0.004863683419560577</v>
       </c>
       <c r="F32">
-        <v>-0.2237315877164303</v>
+        <v>-0.002510955607487511</v>
       </c>
       <c r="G32">
-        <v>-0.3037317092109036</v>
+        <v>-0.003787811684309563</v>
       </c>
       <c r="H32">
-        <v>-0.07217598436886825</v>
+        <v>-0.001731424469216082</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.3110929138342879</v>
+        <v>-0.01936419948409432</v>
       </c>
       <c r="C33">
-        <v>0.3338575179038407</v>
+        <v>0.0237705170425811</v>
       </c>
       <c r="D33">
-        <v>-0.1627422355831088</v>
+        <v>-0.02256574836839272</v>
       </c>
       <c r="E33">
-        <v>-0.5100114303733657</v>
+        <v>-0.04506410729385495</v>
       </c>
       <c r="F33">
-        <v>-0.5787413478066189</v>
+        <v>-0.01772315513530614</v>
       </c>
       <c r="G33">
-        <v>-0.6303305907922901</v>
+        <v>-0.03916934838917156</v>
       </c>
       <c r="H33">
-        <v>0.02086150819430096</v>
+        <v>-0.01837585255387538</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.0021377941580104</v>
+        <v>-0.2010279043642756</v>
       </c>
       <c r="C34">
-        <v>0.002399455417918566</v>
+        <v>0.2156419540725517</v>
       </c>
       <c r="D34">
-        <v>-0.001721956168943116</v>
+        <v>-0.1933506696840696</v>
       </c>
       <c r="E34">
-        <v>-0.005295245587421987</v>
+        <v>-0.5134348428400883</v>
       </c>
       <c r="F34">
-        <v>-0.003470930558687343</v>
+        <v>-0.2886080154382676</v>
       </c>
       <c r="G34">
-        <v>-0.003571594961531822</v>
+        <v>-0.2704011302301273</v>
       </c>
       <c r="H34">
-        <v>-0.001745818496297056</v>
+        <v>-0.01359754189296509</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.2230813590827837</v>
+        <v>-0.002249050024299567</v>
       </c>
       <c r="C35">
-        <v>0.5771031392282415</v>
+        <v>0.002555381311294766</v>
       </c>
       <c r="D35">
-        <v>-0.405176134323981</v>
+        <v>-0.00142732867639221</v>
       </c>
       <c r="E35">
-        <v>-0.3498783508682873</v>
+        <v>-0.00492387286364986</v>
       </c>
       <c r="F35">
-        <v>-0.325860789310885</v>
+        <v>-0.002723691985187103</v>
       </c>
       <c r="G35">
-        <v>-0.3651986859117421</v>
+        <v>-0.004829210238030459</v>
       </c>
       <c r="H35">
-        <v>-0.07189114283798566</v>
+        <v>-0.002094054166716412</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.1883724274574555</v>
+        <v>-0.1743844958393373</v>
       </c>
       <c r="C36">
-        <v>0.1247127091580775</v>
+        <v>0.2505764649520635</v>
       </c>
       <c r="D36">
-        <v>-0.1394594286563153</v>
+        <v>-0.2779460703871785</v>
       </c>
       <c r="E36">
-        <v>-0.5522677570257859</v>
+        <v>-0.268359530644081</v>
       </c>
       <c r="F36">
-        <v>-0.3139375949617065</v>
+        <v>-0.3576148398220497</v>
       </c>
       <c r="G36">
-        <v>-0.2491140041837323</v>
+        <v>-0.3215644455704536</v>
       </c>
       <c r="H36">
-        <v>0.007657735304776076</v>
+        <v>-0.1074670571357412</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.00198340660270968</v>
+        <v>-0.01918491100198174</v>
       </c>
       <c r="C37">
-        <v>0.002630052735437885</v>
+        <v>0.02283103490684531</v>
       </c>
       <c r="D37">
-        <v>-0.002424547851607012</v>
+        <v>-0.02181960522658919</v>
       </c>
       <c r="E37">
-        <v>-0.004729057739278035</v>
+        <v>-0.04594894261882577</v>
       </c>
       <c r="F37">
-        <v>-0.002992031730300672</v>
+        <v>-0.02439678202070319</v>
       </c>
       <c r="G37">
-        <v>-0.003771126796425723</v>
+        <v>-0.0351641758370681</v>
       </c>
       <c r="H37">
-        <v>-0.001251323542797314</v>
+        <v>-0.01801119744666747</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.001991535590396865</v>
+        <v>-0.1232865125131224</v>
       </c>
       <c r="C38">
-        <v>0.00240276396522072</v>
+        <v>0.1066424477276507</v>
       </c>
       <c r="D38">
-        <v>-0.001938348090913262</v>
+        <v>-0.138534573550913</v>
       </c>
       <c r="E38">
-        <v>-0.004368920585872527</v>
+        <v>-0.2811170932560235</v>
       </c>
       <c r="F38">
-        <v>-0.002885270713882598</v>
+        <v>-0.1544370861855472</v>
       </c>
       <c r="G38">
-        <v>-0.004416173858449233</v>
+        <v>-0.1923019141008266</v>
       </c>
       <c r="H38">
-        <v>-0.001924565023134155</v>
+        <v>-0.102263901013693</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.002300785682771613</v>
+        <v>-0.001845556313663126</v>
       </c>
       <c r="C39">
-        <v>0.003133110877035807</v>
+        <v>0.002045365023910884</v>
       </c>
       <c r="D39">
-        <v>-0.002425633734846101</v>
+        <v>-0.002165876877503467</v>
       </c>
       <c r="E39">
-        <v>-0.004849176793072751</v>
+        <v>-0.004634614484161381</v>
       </c>
       <c r="F39">
-        <v>-0.003290932170294562</v>
+        <v>-0.003246837713695024</v>
       </c>
       <c r="G39">
-        <v>-0.00414614137243619</v>
+        <v>-0.003764245735932847</v>
       </c>
       <c r="H39">
-        <v>-0.001503778654972697</v>
+        <v>-0.0008264970500052057</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.2104941562770213</v>
+        <v>-0.00232812757882022</v>
       </c>
       <c r="C40">
-        <v>0.1705676707520513</v>
+        <v>0.002809669386862193</v>
       </c>
       <c r="D40">
-        <v>-0.1960036022091213</v>
+        <v>-0.001570981585524919</v>
       </c>
       <c r="E40">
-        <v>-0.4544465623597758</v>
+        <v>-0.005216665676267563</v>
       </c>
       <c r="F40">
-        <v>-0.4796860521972547</v>
+        <v>-0.003232262855291216</v>
       </c>
       <c r="G40">
-        <v>-0.3123139756833913</v>
+        <v>-0.004372458464184189</v>
       </c>
       <c r="H40">
-        <v>-0.02687886048580011</v>
+        <v>-0.001787463904439356</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.2084294616330586</v>
+        <v>-0.01892747932672616</v>
       </c>
       <c r="C41">
-        <v>0.3200690860659033</v>
+        <v>0.02661801539429874</v>
       </c>
       <c r="D41">
-        <v>-0.2230634483056093</v>
+        <v>-0.01223878504322765</v>
       </c>
       <c r="E41">
-        <v>-0.3815808948147749</v>
+        <v>-0.04646339384405135</v>
       </c>
       <c r="F41">
-        <v>-0.4587061338643647</v>
+        <v>-0.02593916103262648</v>
       </c>
       <c r="G41">
-        <v>-0.2927627802931265</v>
+        <v>-0.03702334778168926</v>
       </c>
       <c r="H41">
-        <v>-0.2026497655437471</v>
+        <v>-0.01232096342852982</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.002049288265606112</v>
+        <v>-0.0193623037799342</v>
       </c>
       <c r="C42">
-        <v>0.001911518673153028</v>
+        <v>0.02284805518950795</v>
       </c>
       <c r="D42">
-        <v>-0.001957618734758503</v>
+        <v>-0.02006400945825782</v>
       </c>
       <c r="E42">
-        <v>-0.004819332263535209</v>
+        <v>-0.03932636689073069</v>
       </c>
       <c r="F42">
-        <v>-0.002933067653419126</v>
+        <v>-0.03514452926676035</v>
       </c>
       <c r="G42">
-        <v>-0.00454809508829976</v>
+        <v>-0.03610375775473428</v>
       </c>
       <c r="H42">
-        <v>-0.001371909013885274</v>
+        <v>-0.01641575044812789</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.178055025616951</v>
+        <v>-0.01785632472998445</v>
       </c>
       <c r="C43">
-        <v>0.2443622008230354</v>
+        <v>0.02072815035614252</v>
       </c>
       <c r="D43">
-        <v>-0.08648492897509447</v>
+        <v>-0.02106383112183153</v>
       </c>
       <c r="E43">
-        <v>-0.3893246854056788</v>
+        <v>-0.03932698211923779</v>
       </c>
       <c r="F43">
-        <v>-0.3505591221878196</v>
+        <v>-0.02911585370447081</v>
       </c>
       <c r="G43">
-        <v>-0.3521788049836778</v>
+        <v>-0.03898696724846131</v>
       </c>
       <c r="H43">
-        <v>-0.05898361491662517</v>
+        <v>-0.01062920136879921</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.2534941664890172</v>
+        <v>-0.002087570943556153</v>
       </c>
       <c r="C44">
-        <v>0.25520199093892</v>
+        <v>0.0023480726158829</v>
       </c>
       <c r="D44">
-        <v>-0.2086427168406982</v>
+        <v>-0.003569987136600377</v>
       </c>
       <c r="E44">
-        <v>-0.5361148041938127</v>
+        <v>-0.004324308359265752</v>
       </c>
       <c r="F44">
-        <v>-0.4000355249474735</v>
+        <v>-0.002490050108540824</v>
       </c>
       <c r="G44">
-        <v>-0.5386000583252976</v>
+        <v>-0.004088525575141963</v>
       </c>
       <c r="H44">
-        <v>-0.02383883662819486</v>
+        <v>-0.001768345463024925</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.2196688013662345</v>
+        <v>-0.003113915263690364</v>
       </c>
       <c r="C45">
-        <v>0.5339946627026064</v>
+        <v>0.00309228197963223</v>
       </c>
       <c r="D45">
-        <v>-0.2618802109446168</v>
+        <v>-0.001759994708255901</v>
       </c>
       <c r="E45">
-        <v>-0.3860961602165326</v>
+        <v>-0.005856379345634862</v>
       </c>
       <c r="F45">
-        <v>-0.370045762989576</v>
+        <v>-0.003093629444616111</v>
       </c>
       <c r="G45">
-        <v>-0.4154925371844347</v>
+        <v>-0.005415920880666303</v>
       </c>
       <c r="H45">
-        <v>-0.007118938157209259</v>
+        <v>-0.002794943764308339</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.01729655105471715</v>
+        <v>-0.2410772030833958</v>
       </c>
       <c r="C46">
-        <v>0.02804124062727486</v>
+        <v>0.3548172387871212</v>
       </c>
       <c r="D46">
-        <v>-0.0165053545946004</v>
+        <v>-0.2204404258617534</v>
       </c>
       <c r="E46">
-        <v>-0.03479769389205088</v>
+        <v>-0.4950275591163955</v>
       </c>
       <c r="F46">
-        <v>-0.02269956216682605</v>
+        <v>-0.4725426195747686</v>
       </c>
       <c r="G46">
-        <v>-0.03889299071481096</v>
+        <v>-0.3554190161281304</v>
       </c>
       <c r="H46">
-        <v>-0.0201632071724622</v>
+        <v>-0.175561993191654</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.00254899464733227</v>
+        <v>-0.09391163813800744</v>
       </c>
       <c r="C47">
-        <v>0.003116135136949763</v>
+        <v>0.08362682663307308</v>
       </c>
       <c r="D47">
-        <v>-0.0007592062803510375</v>
+        <v>-0.1211647559498265</v>
       </c>
       <c r="E47">
-        <v>-0.005675107132595524</v>
+        <v>-0.2371818534600487</v>
       </c>
       <c r="F47">
-        <v>-0.003746103206280136</v>
+        <v>-0.1583344242610137</v>
       </c>
       <c r="G47">
-        <v>-0.004284007769111082</v>
+        <v>-0.1812873944762981</v>
       </c>
       <c r="H47">
-        <v>-0.001463160331202808</v>
+        <v>-0.07608478143588823</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.002435827863179256</v>
+        <v>-0.002444953652900697</v>
       </c>
       <c r="C48">
-        <v>0.002486533259641724</v>
+        <v>0.002427887601175688</v>
       </c>
       <c r="D48">
-        <v>-0.002127091217606307</v>
+        <v>-0.002801966801514334</v>
       </c>
       <c r="E48">
-        <v>-0.005216511869672223</v>
+        <v>-0.005448583306167929</v>
       </c>
       <c r="F48">
-        <v>-0.002531659251286053</v>
+        <v>-0.002309981808157576</v>
       </c>
       <c r="G48">
-        <v>-0.005026960582565903</v>
+        <v>-0.004523960563175448</v>
       </c>
       <c r="H48">
-        <v>-0.00199577603566943</v>
+        <v>-0.002149260651814644</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.001982038525116892</v>
+        <v>-0.001658399379201915</v>
       </c>
       <c r="C49">
-        <v>0.002192053097198614</v>
+        <v>0.002121151519385802</v>
       </c>
       <c r="D49">
-        <v>-0.001615778110750772</v>
+        <v>-0.001925900158583679</v>
       </c>
       <c r="E49">
-        <v>-0.004578293257899102</v>
+        <v>-0.004191798510133061</v>
       </c>
       <c r="F49">
-        <v>-0.003423879310118553</v>
+        <v>-0.003052931515665045</v>
       </c>
       <c r="G49">
-        <v>-0.003958977131174102</v>
+        <v>-0.003549010402773407</v>
       </c>
       <c r="H49">
-        <v>-0.002024681143108827</v>
+        <v>-0.00154655105703764</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.001995139033188696</v>
+        <v>-0.002120545645449058</v>
       </c>
       <c r="C50">
-        <v>0.00195871307466967</v>
+        <v>0.002352770371907353</v>
       </c>
       <c r="D50">
-        <v>-0.002368066981761854</v>
+        <v>-0.002646893165313973</v>
       </c>
       <c r="E50">
-        <v>-0.00416915025712312</v>
+        <v>-0.005193224595145991</v>
       </c>
       <c r="F50">
-        <v>-0.003261837474013813</v>
+        <v>-0.003405527852818949</v>
       </c>
       <c r="G50">
-        <v>-0.004245923243701418</v>
+        <v>-0.003456527993151273</v>
       </c>
       <c r="H50">
-        <v>-0.002186072059531563</v>
+        <v>-0.0009999918615091338</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.02204258377127192</v>
+        <v>-0.002438424961043959</v>
       </c>
       <c r="C51">
-        <v>0.02453918185069041</v>
+        <v>0.002675918103897137</v>
       </c>
       <c r="D51">
-        <v>-0.02041171925747977</v>
+        <v>-0.001572982682506623</v>
       </c>
       <c r="E51">
-        <v>-0.05038497640263144</v>
+        <v>-0.005280305722958401</v>
       </c>
       <c r="F51">
-        <v>-0.02872125299317221</v>
+        <v>-0.002978327168620944</v>
       </c>
       <c r="G51">
-        <v>-0.03744212751846433</v>
+        <v>-0.004927803500722716</v>
       </c>
       <c r="H51">
-        <v>-0.01555217343745424</v>
+        <v>-0.001721151212342547</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.2127688869337854</v>
+        <v>-0.2934807947659592</v>
       </c>
       <c r="C52">
-        <v>0.2329012978913888</v>
+        <v>0.1531214969783762</v>
       </c>
       <c r="D52">
-        <v>-0.3259523805179909</v>
+        <v>-0.2221836038244021</v>
       </c>
       <c r="E52">
-        <v>-0.4811709541135618</v>
+        <v>-0.6567902467942199</v>
       </c>
       <c r="F52">
-        <v>-0.3347859305685529</v>
+        <v>-0.5880678663970971</v>
       </c>
       <c r="G52">
-        <v>-0.2783600894493485</v>
+        <v>-0.331773180830485</v>
       </c>
       <c r="H52">
-        <v>0.02064659175541162</v>
+        <v>-0.1201275870886522</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.2297880034151412</v>
+        <v>-0.1007175473110398</v>
       </c>
       <c r="C53">
-        <v>0.2376064306967347</v>
+        <v>0.1686925864046445</v>
       </c>
       <c r="D53">
-        <v>-0.2020869769789685</v>
+        <v>-0.1219138226247001</v>
       </c>
       <c r="E53">
-        <v>-0.5975870660806846</v>
+        <v>-0.2007636990999977</v>
       </c>
       <c r="F53">
-        <v>-0.2257871232057699</v>
+        <v>-0.1369824332145368</v>
       </c>
       <c r="G53">
-        <v>-0.2818996465069198</v>
+        <v>-0.2028277990501849</v>
       </c>
       <c r="H53">
-        <v>-0.1117612772588186</v>
+        <v>-0.04619472620429461</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.1135087535326373</v>
+        <v>-0.1444628972945142</v>
       </c>
       <c r="C54">
-        <v>0.1953960580089227</v>
+        <v>0.1184787174092271</v>
       </c>
       <c r="D54">
-        <v>-0.09240411419167234</v>
+        <v>-0.104949498112986</v>
       </c>
       <c r="E54">
-        <v>-0.2299855903111798</v>
+        <v>-0.2967029815664362</v>
       </c>
       <c r="F54">
-        <v>-0.1526845799491588</v>
+        <v>-0.1691819244835783</v>
       </c>
       <c r="G54">
-        <v>-0.2053935087113775</v>
+        <v>-0.2471861873656991</v>
       </c>
       <c r="H54">
-        <v>-0.05391021233635256</v>
+        <v>-0.05520592789183864</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.2365155040781413</v>
+        <v>-0.243163899740651</v>
       </c>
       <c r="C55">
-        <v>0.2488112329263349</v>
+        <v>0.3450647697556485</v>
       </c>
       <c r="D55">
-        <v>-0.4713299577591422</v>
+        <v>0.02803561397799529</v>
       </c>
       <c r="E55">
-        <v>-0.43378033698988</v>
+        <v>-0.3970117206102696</v>
       </c>
       <c r="F55">
-        <v>-0.3851803362525804</v>
+        <v>-0.4373341950981522</v>
       </c>
       <c r="G55">
-        <v>-0.3899240049578274</v>
+        <v>-0.5410229569036723</v>
       </c>
       <c r="H55">
-        <v>-0.1041066629226323</v>
+        <v>-0.07428186536696051</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.00238185268168726</v>
+        <v>-0.01771743892605373</v>
       </c>
       <c r="C56">
-        <v>0.001732835570720945</v>
+        <v>0.0224605417254537</v>
       </c>
       <c r="D56">
-        <v>-0.002818707634114794</v>
+        <v>-0.01731848309838968</v>
       </c>
       <c r="E56">
-        <v>-0.004931607634374082</v>
+        <v>-0.03919792598865483</v>
       </c>
       <c r="F56">
-        <v>-0.003446922910021476</v>
+        <v>-0.02908387572253205</v>
       </c>
       <c r="G56">
-        <v>-0.00458444676019249</v>
+        <v>-0.03534947227188619</v>
       </c>
       <c r="H56">
-        <v>-0.001933678556802049</v>
+        <v>-0.01979448603550336</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.01849488135966936</v>
+        <v>-0.002076292913502629</v>
       </c>
       <c r="C57">
-        <v>0.02030921865821166</v>
+        <v>0.002514044377631545</v>
       </c>
       <c r="D57">
-        <v>-0.0176635786930147</v>
+        <v>-0.001895558438727653</v>
       </c>
       <c r="E57">
-        <v>-0.04223828854269628</v>
+        <v>-0.005501053659962936</v>
       </c>
       <c r="F57">
-        <v>-0.01922241796410899</v>
+        <v>-0.002663854575771697</v>
       </c>
       <c r="G57">
-        <v>-0.04118403127831974</v>
+        <v>-0.003777752176431639</v>
       </c>
       <c r="H57">
-        <v>-0.02143146958024946</v>
+        <v>-0.001087783063873165</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.002571768457946145</v>
+        <v>-0.00182093788045542</v>
       </c>
       <c r="C58">
-        <v>0.002258538865735956</v>
+        <v>0.002499676852397494</v>
       </c>
       <c r="D58">
-        <v>-0.002745602895605057</v>
+        <v>-0.00194757840998559</v>
       </c>
       <c r="E58">
-        <v>-0.005580020211042292</v>
+        <v>-0.00440440445735384</v>
       </c>
       <c r="F58">
-        <v>-0.002861291336413379</v>
+        <v>-0.00238896875058368</v>
       </c>
       <c r="G58">
-        <v>-0.0046277539104603</v>
+        <v>-0.00391986540738236</v>
       </c>
       <c r="H58">
-        <v>-0.00205579959830328</v>
+        <v>-0.002002864291403891</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.245879344500945</v>
+        <v>-0.1031701870209549</v>
       </c>
       <c r="C59">
-        <v>0.4182219346091484</v>
+        <v>0.1154866570625764</v>
       </c>
       <c r="D59">
-        <v>-0.2403895319969168</v>
+        <v>-0.1109444673448205</v>
       </c>
       <c r="E59">
-        <v>-0.5939090926383873</v>
+        <v>-0.2306877128887631</v>
       </c>
       <c r="F59">
-        <v>-0.4531192131095728</v>
+        <v>-0.1490077296758335</v>
       </c>
       <c r="G59">
-        <v>-0.2489217933031138</v>
+        <v>-0.1892309949934829</v>
       </c>
       <c r="H59">
-        <v>-0.2004693053582806</v>
+        <v>-0.1066132439479827</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.2280052521176756</v>
+        <v>-0.1251118937109308</v>
       </c>
       <c r="C60">
-        <v>0.1821779756353828</v>
+        <v>0.1301038837479576</v>
       </c>
       <c r="D60">
-        <v>-0.1483952315307857</v>
+        <v>-0.08742809547196626</v>
       </c>
       <c r="E60">
-        <v>-0.5013103117378721</v>
+        <v>-0.2625148890780558</v>
       </c>
       <c r="F60">
-        <v>-0.4729528161845237</v>
+        <v>-0.1654372988254998</v>
       </c>
       <c r="G60">
-        <v>-0.4140674361932373</v>
+        <v>-0.2442060427251319</v>
       </c>
       <c r="H60">
-        <v>-0.07464690614382377</v>
+        <v>-0.05298866836347257</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.002358236511844633</v>
+        <v>-0.00189803725941795</v>
       </c>
       <c r="C61">
-        <v>0.002385312932361713</v>
+        <v>0.002736018056723709</v>
       </c>
       <c r="D61">
-        <v>-0.00114364998670537</v>
+        <v>-0.001757917810985048</v>
       </c>
       <c r="E61">
-        <v>-0.004380492594800953</v>
+        <v>-0.004847006672073187</v>
       </c>
       <c r="F61">
-        <v>-0.003973118978005088</v>
+        <v>-0.002898176324697188</v>
       </c>
       <c r="G61">
-        <v>-0.004837620932758183</v>
+        <v>-0.003556586041351993</v>
       </c>
       <c r="H61">
-        <v>-0.00242010344145356</v>
+        <v>-0.001493734816597475</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.002030983067401424</v>
+        <v>-0.2403200543362494</v>
       </c>
       <c r="C62">
-        <v>0.002410402664004649</v>
+        <v>0.1558330740459317</v>
       </c>
       <c r="D62">
-        <v>-0.001733198219149165</v>
+        <v>-0.2520508535246521</v>
       </c>
       <c r="E62">
-        <v>-0.005056472551086454</v>
+        <v>-0.4937370885561849</v>
       </c>
       <c r="F62">
-        <v>-0.002717798935053319</v>
+        <v>-0.3109603921200191</v>
       </c>
       <c r="G62">
-        <v>-0.004107109733142029</v>
+        <v>-0.3709730074596876</v>
       </c>
       <c r="H62">
-        <v>-0.001644978755555715</v>
+        <v>-0.158851280455983</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.219409867675385</v>
+        <v>-0.002043291630901886</v>
       </c>
       <c r="C63">
-        <v>0.4030204562446703</v>
+        <v>0.002188688399225065</v>
       </c>
       <c r="D63">
-        <v>-0.2076232777653579</v>
+        <v>-0.002239978465202071</v>
       </c>
       <c r="E63">
-        <v>-0.4729568014620056</v>
+        <v>-0.00477110103070207</v>
       </c>
       <c r="F63">
-        <v>-0.3514346234204587</v>
+        <v>-0.002487522297079442</v>
       </c>
       <c r="G63">
-        <v>-0.3891274687961885</v>
+        <v>-0.004366450736798024</v>
       </c>
       <c r="H63">
-        <v>-0.09662443122997813</v>
+        <v>-0.001968925580825763</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.1845741783839741</v>
+        <v>-0.001921715321077562</v>
       </c>
       <c r="C64">
-        <v>0.286568979291682</v>
+        <v>0.001886001052684702</v>
       </c>
       <c r="D64">
-        <v>-0.2749632064706922</v>
+        <v>-0.00271030700885501</v>
       </c>
       <c r="E64">
-        <v>-0.3526932962188811</v>
+        <v>-0.00424386077757462</v>
       </c>
       <c r="F64">
-        <v>-0.3083581738315717</v>
+        <v>-0.002600509954182037</v>
       </c>
       <c r="G64">
-        <v>-0.2928149725104813</v>
+        <v>-0.004387786951799707</v>
       </c>
       <c r="H64">
-        <v>-0.09914014294801203</v>
+        <v>-0.001751488691245749</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.01840914555020679</v>
+        <v>-0.01406812194307197</v>
       </c>
       <c r="C65">
-        <v>0.01818198007607553</v>
+        <v>0.0166740187564176</v>
       </c>
       <c r="D65">
-        <v>-0.01785127236960156</v>
+        <v>-0.01361959436894912</v>
       </c>
       <c r="E65">
-        <v>-0.04474383187232976</v>
+        <v>-0.03727711661865095</v>
       </c>
       <c r="F65">
-        <v>-0.02931381682803726</v>
+        <v>-0.02609508109167565</v>
       </c>
       <c r="G65">
-        <v>-0.03619735502829906</v>
+        <v>-0.03455932073960283</v>
       </c>
       <c r="H65">
-        <v>-0.01536450447068726</v>
+        <v>-0.01216047396678832</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.1492729034247907</v>
+        <v>-0.146155993285342</v>
       </c>
       <c r="C66">
-        <v>0.3028909853455551</v>
+        <v>0.1455944645345063</v>
       </c>
       <c r="D66">
-        <v>-0.2395490977658114</v>
+        <v>-0.1863869629771199</v>
       </c>
       <c r="E66">
-        <v>-0.2696011048616034</v>
+        <v>-0.352932166712406</v>
       </c>
       <c r="F66">
-        <v>-0.3405807708023678</v>
+        <v>-0.2903533090852389</v>
       </c>
       <c r="G66">
-        <v>-0.2608054613523983</v>
+        <v>-0.3013087963392648</v>
       </c>
       <c r="H66">
-        <v>-0.1114470564779253</v>
+        <v>-0.09141713186640162</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.01888024806552387</v>
+        <v>-0.2009435575140396</v>
       </c>
       <c r="C67">
-        <v>0.02251985769755326</v>
+        <v>0.2141844127176497</v>
       </c>
       <c r="D67">
-        <v>-0.02334051453439257</v>
+        <v>-0.1609393884713602</v>
       </c>
       <c r="E67">
-        <v>-0.04468063478559652</v>
+        <v>-0.4863875358663631</v>
       </c>
       <c r="F67">
-        <v>-0.02949504312269326</v>
+        <v>-0.2887989082029649</v>
       </c>
       <c r="G67">
-        <v>-0.03158386667942423</v>
+        <v>-0.3346659734308002</v>
       </c>
       <c r="H67">
-        <v>-0.01618089360549911</v>
+        <v>0.0194581096419804</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.1879153628832221</v>
+        <v>-0.01856135576033933</v>
       </c>
       <c r="C68">
-        <v>0.1331760952521009</v>
+        <v>0.02751566179974513</v>
       </c>
       <c r="D68">
-        <v>-0.2072957933638903</v>
+        <v>-0.0110821764094713</v>
       </c>
       <c r="E68">
-        <v>-0.392576277791772</v>
+        <v>-0.03954912561369503</v>
       </c>
       <c r="F68">
-        <v>-0.3423829743353614</v>
+        <v>-0.02539565477665933</v>
       </c>
       <c r="G68">
-        <v>-0.310984113060373</v>
+        <v>-0.03877969922594201</v>
       </c>
       <c r="H68">
-        <v>-0.134121267634389</v>
+        <v>-0.02216913954486219</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.00231002795280268</v>
+        <v>-0.09144078165290323</v>
       </c>
       <c r="C69">
-        <v>0.00241875928559273</v>
+        <v>0.1106718684471288</v>
       </c>
       <c r="D69">
-        <v>-0.002026910484891011</v>
+        <v>-0.14510862706765</v>
       </c>
       <c r="E69">
-        <v>-0.005084291479446241</v>
+        <v>-0.2245111105533018</v>
       </c>
       <c r="F69">
-        <v>-0.002750433768145773</v>
+        <v>-0.153189187083429</v>
       </c>
       <c r="G69">
-        <v>-0.004559119054195293</v>
+        <v>-0.1763702250845248</v>
       </c>
       <c r="H69">
-        <v>-0.002346924116097553</v>
+        <v>-0.03211864421775264</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.002066901155133543</v>
+        <v>-0.3231382052011684</v>
       </c>
       <c r="C70">
-        <v>0.002555727110377205</v>
+        <v>0.3169134523105003</v>
       </c>
       <c r="D70">
-        <v>-0.001158335115079676</v>
+        <v>-0.3663368761789129</v>
       </c>
       <c r="E70">
-        <v>-0.004982236362029251</v>
+        <v>-0.6034074369517722</v>
       </c>
       <c r="F70">
-        <v>-0.003226251640877737</v>
+        <v>-0.5005392701231623</v>
       </c>
       <c r="G70">
-        <v>-0.004012383531920078</v>
+        <v>-0.5549819541002968</v>
       </c>
       <c r="H70">
-        <v>-0.001803295298786665</v>
+        <v>0.03536409359679775</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.2093395815059922</v>
+        <v>-0.002377186241012467</v>
       </c>
       <c r="C71">
-        <v>0.3062696009383701</v>
+        <v>0.002172716292924243</v>
       </c>
       <c r="D71">
-        <v>-0.2711405613863589</v>
+        <v>-0.002268923400491724</v>
       </c>
       <c r="E71">
-        <v>-0.4523246298239646</v>
+        <v>-0.004636282329926644</v>
       </c>
       <c r="F71">
-        <v>-0.2903319544534519</v>
+        <v>-0.00268677829649551</v>
       </c>
       <c r="G71">
-        <v>-0.3460172497600849</v>
+        <v>-0.005067832242126265</v>
       </c>
       <c r="H71">
-        <v>-0.1160332620910554</v>
+        <v>-0.002734251531522029</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.1214191907256914</v>
+        <v>-0.002313265383543568</v>
       </c>
       <c r="C72">
-        <v>0.1445322320918501</v>
+        <v>0.00201711678896216</v>
       </c>
       <c r="D72">
-        <v>-0.06846552368284457</v>
+        <v>-0.002375379107144063</v>
       </c>
       <c r="E72">
-        <v>-0.2870269191619596</v>
+        <v>-0.005022016190072329</v>
       </c>
       <c r="F72">
-        <v>-0.1654982711886448</v>
+        <v>-0.003498186654156858</v>
       </c>
       <c r="G72">
-        <v>-0.1947818188146363</v>
+        <v>-0.004394086718288764</v>
       </c>
       <c r="H72">
-        <v>-0.06638122465361758</v>
+        <v>-0.001835490352290398</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.09615867402671323</v>
+        <v>-0.001713433454995654</v>
       </c>
       <c r="C73">
-        <v>0.1145732193324354</v>
+        <v>0.001872929835890438</v>
       </c>
       <c r="D73">
-        <v>-0.1022476710067399</v>
+        <v>-0.002241287352106956</v>
       </c>
       <c r="E73">
-        <v>-0.2634398788741726</v>
+        <v>-0.004371429743776861</v>
       </c>
       <c r="F73">
-        <v>-0.1629942426477018</v>
+        <v>-0.002534995143590545</v>
       </c>
       <c r="G73">
-        <v>-0.1554605372459272</v>
+        <v>-0.003539289878981165</v>
       </c>
       <c r="H73">
-        <v>-0.03992773699930557</v>
+        <v>-0.002267173019985143</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.1240059731603326</v>
+        <v>-0.002262435337335137</v>
       </c>
       <c r="C74">
-        <v>0.1622557644938326</v>
+        <v>0.002176987273734055</v>
       </c>
       <c r="D74">
-        <v>-0.07916085685363551</v>
+        <v>-0.002917288580802885</v>
       </c>
       <c r="E74">
-        <v>-0.2537168582174399</v>
+        <v>-0.005088657815823383</v>
       </c>
       <c r="F74">
-        <v>-0.1694022857536878</v>
+        <v>-0.002998307194554135</v>
       </c>
       <c r="G74">
-        <v>-0.2088980962027826</v>
+        <v>-0.003933751509952381</v>
       </c>
       <c r="H74">
-        <v>-0.07827102468428254</v>
+        <v>-0.002172306212342296</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.1930030445267416</v>
+        <v>-0.00279443800490187</v>
       </c>
       <c r="C75">
-        <v>0.2395088280030105</v>
+        <v>0.001968353777889881</v>
       </c>
       <c r="D75">
-        <v>-0.07805818279155718</v>
+        <v>-0.002469925182429191</v>
       </c>
       <c r="E75">
-        <v>-0.4009183005553725</v>
+        <v>-0.005567451766959217</v>
       </c>
       <c r="F75">
-        <v>-0.3428691974651949</v>
+        <v>-0.003156749844138359</v>
       </c>
       <c r="G75">
-        <v>-0.3406902720794532</v>
+        <v>-0.005374844280230546</v>
       </c>
       <c r="H75">
-        <v>-0.1254092680884387</v>
+        <v>-0.00214445583224754</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.1228628808352793</v>
+        <v>-0.2561394610752648</v>
       </c>
       <c r="C76">
-        <v>0.1435545262779425</v>
+        <v>0.3314222688677672</v>
       </c>
       <c r="D76">
-        <v>-0.09450522893224772</v>
+        <v>-0.4460688106656555</v>
       </c>
       <c r="E76">
-        <v>-0.2112379060935475</v>
+        <v>-0.5664050781366018</v>
       </c>
       <c r="F76">
-        <v>-0.181350507409599</v>
+        <v>-0.4602348842309334</v>
       </c>
       <c r="G76">
-        <v>-0.2416480291509153</v>
+        <v>-0.1733648602377591</v>
       </c>
       <c r="H76">
-        <v>-0.119302859293813</v>
+        <v>-0.04027177492241105</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.1083428805751455</v>
+        <v>-0.002495320764648703</v>
       </c>
       <c r="C77">
-        <v>0.1154192128999073</v>
+        <v>0.002901120611514992</v>
       </c>
       <c r="D77">
-        <v>-0.1125000628389593</v>
+        <v>-0.001744170620461609</v>
       </c>
       <c r="E77">
-        <v>-0.2511723286472229</v>
+        <v>-0.00532282847266085</v>
       </c>
       <c r="F77">
-        <v>-0.1420957998289848</v>
+        <v>-0.002770445547495723</v>
       </c>
       <c r="G77">
-        <v>-0.2048522605472513</v>
+        <v>-0.004539265320310996</v>
       </c>
       <c r="H77">
-        <v>-0.08101602583011915</v>
+        <v>-0.002705102045189369</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.09555484894616752</v>
+        <v>-0.002181231922143928</v>
       </c>
       <c r="C78">
-        <v>0.09595683468645934</v>
+        <v>0.001528669635496807</v>
       </c>
       <c r="D78">
-        <v>-0.1536354208730338</v>
+        <v>-0.002583453589597624</v>
       </c>
       <c r="E78">
-        <v>-0.2326167978086687</v>
+        <v>-0.004708716186327134</v>
       </c>
       <c r="F78">
-        <v>-0.1673066599321528</v>
+        <v>-0.003021742838734766</v>
       </c>
       <c r="G78">
-        <v>-0.1686397619692565</v>
+        <v>-0.004057539604068429</v>
       </c>
       <c r="H78">
-        <v>-0.03462874409906618</v>
+        <v>-0.003006171333675515</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.01996976309703404</v>
+        <v>-0.2314717759658271</v>
       </c>
       <c r="C79">
-        <v>0.02095399992125578</v>
+        <v>0.2191739405159638</v>
       </c>
       <c r="D79">
-        <v>-0.02311230920350988</v>
+        <v>-0.1811206501551342</v>
       </c>
       <c r="E79">
-        <v>-0.04394603506437651</v>
+        <v>-0.5264053722936645</v>
       </c>
       <c r="F79">
-        <v>-0.03264967706106412</v>
+        <v>-0.4420412632706875</v>
       </c>
       <c r="G79">
-        <v>-0.03469489220442917</v>
+        <v>-0.3231130457303228</v>
       </c>
       <c r="H79">
-        <v>-0.0165738989475703</v>
+        <v>-0.2003153494050814</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.001822946633076489</v>
+        <v>-0.1055846077006219</v>
       </c>
       <c r="C80">
-        <v>0.002084955899771843</v>
+        <v>0.08138413026074322</v>
       </c>
       <c r="D80">
-        <v>-0.002319476112681865</v>
+        <v>-0.1212504372996298</v>
       </c>
       <c r="E80">
-        <v>-0.004224007981505683</v>
+        <v>-0.260929446866529</v>
       </c>
       <c r="F80">
-        <v>-0.002578424893544397</v>
+        <v>-0.1620203224823926</v>
       </c>
       <c r="G80">
-        <v>-0.003988282936842298</v>
+        <v>-0.1974570718136827</v>
       </c>
       <c r="H80">
-        <v>-0.002223268086487953</v>
+        <v>-0.02022549134853306</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.002066694796900574</v>
+        <v>-0.1249968993933007</v>
       </c>
       <c r="C81">
-        <v>0.002145881124119244</v>
+        <v>0.1021302678687813</v>
       </c>
       <c r="D81">
-        <v>-0.001915042080702045</v>
+        <v>-0.110308347473021</v>
       </c>
       <c r="E81">
-        <v>-0.004512718637357435</v>
+        <v>-0.2472730370349073</v>
       </c>
       <c r="F81">
-        <v>-0.002542360841333604</v>
+        <v>-0.1781332532441911</v>
       </c>
       <c r="G81">
-        <v>-0.004317858876473695</v>
+        <v>-0.2457637104205966</v>
       </c>
       <c r="H81">
-        <v>-0.002938550490640583</v>
+        <v>-0.0705645997456413</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.002460892572025921</v>
+        <v>-0.09102619060009835</v>
       </c>
       <c r="C82">
-        <v>0.002520495118815736</v>
+        <v>0.1028389425822033</v>
       </c>
       <c r="D82">
-        <v>-0.001425578390981838</v>
+        <v>-0.07010027093577879</v>
       </c>
       <c r="E82">
-        <v>-0.005658906925715073</v>
+        <v>-0.2222480263472793</v>
       </c>
       <c r="F82">
-        <v>-0.002918195725085956</v>
+        <v>-0.1727801616046981</v>
       </c>
       <c r="G82">
-        <v>-0.004643081466006948</v>
+        <v>-0.1846983675618888</v>
       </c>
       <c r="H82">
-        <v>-0.00196813559481785</v>
+        <v>-0.07916437144161881</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.1165150589174351</v>
+        <v>-0.001674044161543725</v>
       </c>
       <c r="C83">
-        <v>0.1124611005643482</v>
+        <v>0.002051779029982708</v>
       </c>
       <c r="D83">
-        <v>-0.05244099102645189</v>
+        <v>-0.001491793799206724</v>
       </c>
       <c r="E83">
-        <v>-0.2416246454906899</v>
+        <v>-0.004364072100087865</v>
       </c>
       <c r="F83">
-        <v>-0.1573901868157928</v>
+        <v>-0.003493346243703571</v>
       </c>
       <c r="G83">
-        <v>-0.2488259083878047</v>
+        <v>-0.003200505563761763</v>
       </c>
       <c r="H83">
-        <v>-0.1003351716790695</v>
+        <v>-0.001647569600309799</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.1806522161884376</v>
+        <v>-0.2258554756336154</v>
       </c>
       <c r="C84">
-        <v>0.270858480163938</v>
+        <v>0.3053751143660718</v>
       </c>
       <c r="D84">
-        <v>-0.2082241205903948</v>
+        <v>-0.1505804479254562</v>
       </c>
       <c r="E84">
-        <v>-0.4455168049046243</v>
+        <v>-0.4449533168080043</v>
       </c>
       <c r="F84">
-        <v>-0.3501644986794705</v>
+        <v>-0.3652886310552852</v>
       </c>
       <c r="G84">
-        <v>-0.2559980667878393</v>
+        <v>-0.3896848333797081</v>
       </c>
       <c r="H84">
-        <v>0.004712056617706465</v>
+        <v>-0.07590498135252656</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.002284068161378462</v>
+        <v>-0.08143372578233837</v>
       </c>
       <c r="C85">
-        <v>0.004005888127960238</v>
+        <v>0.1167018984175653</v>
       </c>
       <c r="D85">
-        <v>-0.001050485193686277</v>
+        <v>-0.08965100997830625</v>
       </c>
       <c r="E85">
-        <v>-0.004943465622515235</v>
+        <v>-0.2270081510343852</v>
       </c>
       <c r="F85">
-        <v>-0.002593973097214791</v>
+        <v>-0.1257295928735065</v>
       </c>
       <c r="G85">
-        <v>-0.004215713283067433</v>
+        <v>-0.1727360044443016</v>
       </c>
       <c r="H85">
-        <v>-0.001711512365819846</v>
+        <v>-0.02567828667255587</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.02094130571924843</v>
+        <v>-0.002310720987097847</v>
       </c>
       <c r="C86">
-        <v>0.0205162985031232</v>
+        <v>0.002963911592963448</v>
       </c>
       <c r="D86">
-        <v>-0.0169024266309812</v>
+        <v>-0.002105139496819021</v>
       </c>
       <c r="E86">
-        <v>-0.04503363578223861</v>
+        <v>-0.005269262387343781</v>
       </c>
       <c r="F86">
-        <v>-0.03072297809512895</v>
+        <v>-0.002889445511947533</v>
       </c>
       <c r="G86">
-        <v>-0.04164796258980304</v>
+        <v>-0.003931205351580933</v>
       </c>
       <c r="H86">
-        <v>-0.016816238953218</v>
+        <v>-0.002216125785988546</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.1126789442159034</v>
+        <v>-0.002338705770231833</v>
       </c>
       <c r="C87">
-        <v>0.1408288464033856</v>
+        <v>0.002450712722670871</v>
       </c>
       <c r="D87">
-        <v>-0.1238133055649453</v>
+        <v>-0.001503040221231093</v>
       </c>
       <c r="E87">
-        <v>-0.2316154058242617</v>
+        <v>-0.004790573048508719</v>
       </c>
       <c r="F87">
-        <v>-0.2135822472476148</v>
+        <v>-0.003753252405595723</v>
       </c>
       <c r="G87">
-        <v>-0.1739458557847882</v>
+        <v>-0.004600357360015353</v>
       </c>
       <c r="H87">
-        <v>-0.05411660460270876</v>
+        <v>-0.002043274351746015</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.2265689228316091</v>
+        <v>-0.01472203594371623</v>
       </c>
       <c r="C88">
-        <v>0.3423158862845936</v>
+        <v>0.01669923175318658</v>
       </c>
       <c r="D88">
-        <v>-0.3132991306108932</v>
+        <v>-0.02174566028707416</v>
       </c>
       <c r="E88">
-        <v>-0.5289996954333603</v>
+        <v>-0.03912303360014264</v>
       </c>
       <c r="F88">
-        <v>-0.2922823684615531</v>
+        <v>-0.02879240878470834</v>
       </c>
       <c r="G88">
-        <v>-0.2888554952447341</v>
+        <v>-0.02947119468977324</v>
       </c>
       <c r="H88">
-        <v>0.01588153830355505</v>
+        <v>-0.008971413745061503</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.002101266303557432</v>
+        <v>-0.1012236235685507</v>
       </c>
       <c r="C89">
-        <v>0.00209737965907927</v>
+        <v>0.0726264799864984</v>
       </c>
       <c r="D89">
-        <v>-0.001818585624154776</v>
+        <v>-0.1554405405485046</v>
       </c>
       <c r="E89">
-        <v>-0.00469508874376457</v>
+        <v>-0.2185077018411609</v>
       </c>
       <c r="F89">
-        <v>-0.003918371308986892</v>
+        <v>-0.1491580546886996</v>
       </c>
       <c r="G89">
-        <v>-0.003854036989346487</v>
+        <v>-0.2008627924745112</v>
       </c>
       <c r="H89">
-        <v>-0.001877895211971637</v>
+        <v>-0.07215679991983101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.02705834928232524</v>
+        <v>-0.00234458971551001</v>
       </c>
       <c r="C90">
-        <v>0.03081856820877163</v>
+        <v>0.002520756565688811</v>
       </c>
       <c r="D90">
-        <v>-0.01395656072996233</v>
+        <v>-0.002226894627717319</v>
       </c>
       <c r="E90">
-        <v>-0.05046686079949995</v>
+        <v>-0.004865931134478502</v>
       </c>
       <c r="F90">
-        <v>-0.02880193512886956</v>
+        <v>-0.002684356527754789</v>
       </c>
       <c r="G90">
-        <v>-0.04796292856841196</v>
+        <v>-0.004616744792165562</v>
       </c>
       <c r="H90">
-        <v>-0.02307323915787805</v>
+        <v>-0.002694433851758261</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.11325985651877</v>
+        <v>-0.1696156651152075</v>
       </c>
       <c r="C91">
-        <v>0.1477892306980818</v>
+        <v>0.2578037635182621</v>
       </c>
       <c r="D91">
-        <v>-0.1080745839677421</v>
+        <v>-0.1833598241823465</v>
       </c>
       <c r="E91">
-        <v>-0.2428835306332321</v>
+        <v>-0.3673342016236755</v>
       </c>
       <c r="F91">
-        <v>-0.1938664275162716</v>
+        <v>-0.3498924472198147</v>
       </c>
       <c r="G91">
-        <v>-0.1762077854401567</v>
+        <v>-0.2005312082835161</v>
       </c>
       <c r="H91">
-        <v>-0.06008185142194283</v>
+        <v>-0.2123440721620856</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.2793269770858949</v>
+        <v>-0.2650726324214066</v>
       </c>
       <c r="C92">
-        <v>0.2345803124373702</v>
+        <v>0.3129245718444286</v>
       </c>
       <c r="D92">
-        <v>-0.2386977695689271</v>
+        <v>-0.1418856594094988</v>
       </c>
       <c r="E92">
-        <v>-0.6353411598786065</v>
+        <v>-0.5385531272617601</v>
       </c>
       <c r="F92">
-        <v>-0.4396730404032582</v>
+        <v>-0.3901792258137323</v>
       </c>
       <c r="G92">
-        <v>-0.416404432927436</v>
+        <v>-0.4924501041977941</v>
       </c>
       <c r="H92">
-        <v>-0.1726017531850341</v>
+        <v>-0.08497815279220919</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.2403683431969425</v>
+        <v>-0.1030364794793042</v>
       </c>
       <c r="C93">
-        <v>0.406548684499624</v>
+        <v>0.08989936324258348</v>
       </c>
       <c r="D93">
-        <v>-0.364668403884499</v>
+        <v>-0.02939827671845353</v>
       </c>
       <c r="E93">
-        <v>-0.6095373960182106</v>
+        <v>-0.228916113844669</v>
       </c>
       <c r="F93">
-        <v>-0.3145162273107933</v>
+        <v>-0.136351809878281</v>
       </c>
       <c r="G93">
-        <v>-0.2631173449362805</v>
+        <v>-0.2155152551536741</v>
       </c>
       <c r="H93">
-        <v>-0.1112489536309892</v>
+        <v>-0.1358175361349937</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.2515785582148244</v>
+        <v>-0.1775253408239757</v>
       </c>
       <c r="C94">
-        <v>0.3548760199099431</v>
+        <v>0.2283266491860336</v>
       </c>
       <c r="D94">
-        <v>-0.2999232248353587</v>
+        <v>-0.2031468527353415</v>
       </c>
       <c r="E94">
-        <v>-0.482399554709463</v>
+        <v>-0.329017257904184</v>
       </c>
       <c r="F94">
-        <v>-0.4828198221128365</v>
+        <v>-0.3014516209829939</v>
       </c>
       <c r="G94">
-        <v>-0.3754243482517647</v>
+        <v>-0.3792189332238656</v>
       </c>
       <c r="H94">
-        <v>-0.1833675835148813</v>
+        <v>-0.09693181001971835</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.2129096647381369</v>
+        <v>-0.001656872019446544</v>
       </c>
       <c r="C95">
-        <v>0.2792649030943582</v>
+        <v>0.002880463988205245</v>
       </c>
       <c r="D95">
-        <v>-0.1757780849506032</v>
+        <v>-0.001951105653589921</v>
       </c>
       <c r="E95">
-        <v>-0.3727210207160152</v>
+        <v>-0.00411369485111048</v>
       </c>
       <c r="F95">
-        <v>-0.3816154532540127</v>
+        <v>-0.001908266112390187</v>
       </c>
       <c r="G95">
-        <v>-0.3366212890704195</v>
+        <v>-0.00387241720440919</v>
       </c>
       <c r="H95">
-        <v>-0.1796500950602297</v>
+        <v>-0.00154148799056241</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.09259710900676284</v>
+        <v>-0.09901182608617648</v>
       </c>
       <c r="C96">
-        <v>0.1058712916616326</v>
+        <v>0.1553758553380555</v>
       </c>
       <c r="D96">
-        <v>-0.1381820636690793</v>
+        <v>-0.05435941322589254</v>
       </c>
       <c r="E96">
-        <v>-0.2467343193018871</v>
+        <v>-0.2034144208354169</v>
       </c>
       <c r="F96">
-        <v>-0.119871785459752</v>
+        <v>-0.1726958914875493</v>
       </c>
       <c r="G96">
-        <v>-0.1774573062116827</v>
+        <v>-0.213220338204907</v>
       </c>
       <c r="H96">
-        <v>-0.03460288900940922</v>
+        <v>-0.06243769765559617</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.1118048496639996</v>
+        <v>-0.002269074548301165</v>
       </c>
       <c r="C97">
-        <v>0.1626258501087309</v>
+        <v>0.001515723617143117</v>
       </c>
       <c r="D97">
-        <v>-0.1247582359119755</v>
+        <v>-0.002568949335783892</v>
       </c>
       <c r="E97">
-        <v>-0.2580119154553439</v>
+        <v>-0.005098935638636364</v>
       </c>
       <c r="F97">
-        <v>-0.1338373523074973</v>
+        <v>-0.002744769554667159</v>
       </c>
       <c r="G97">
-        <v>-0.178143033974424</v>
+        <v>-0.004701985608641545</v>
       </c>
       <c r="H97">
-        <v>-0.06730657568969525</v>
+        <v>-0.00199337010104819</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1632018448599597</v>
+        <v>-0.2637882289683111</v>
       </c>
       <c r="C98">
-        <v>0.1692770259657281</v>
+        <v>0.350709871760946</v>
       </c>
       <c r="D98">
-        <v>-0.1455610134677047</v>
+        <v>-0.3078691057557086</v>
       </c>
       <c r="E98">
-        <v>-0.3923034251516717</v>
+        <v>-0.5054720046938502</v>
       </c>
       <c r="F98">
-        <v>-0.3123449286695737</v>
+        <v>-0.4440669915679817</v>
       </c>
       <c r="G98">
-        <v>-0.344698888550356</v>
+        <v>-0.5141541128806338</v>
       </c>
       <c r="H98">
-        <v>-0.1131781125960084</v>
+        <v>0.1558972668550085</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.2277267394932275</v>
+        <v>-0.2394988973262046</v>
       </c>
       <c r="C99">
-        <v>0.3968200187587896</v>
+        <v>0.26506296969703</v>
       </c>
       <c r="D99">
-        <v>-0.3821680528824545</v>
+        <v>-0.1792815942435509</v>
       </c>
       <c r="E99">
-        <v>-0.5084259636709239</v>
+        <v>-0.4378748998248027</v>
       </c>
       <c r="F99">
-        <v>-0.4391407142210061</v>
+        <v>-0.4392673562135936</v>
       </c>
       <c r="G99">
-        <v>-0.284018983394648</v>
+        <v>-0.5152779421587839</v>
       </c>
       <c r="H99">
-        <v>-0.1876290684014691</v>
+        <v>-0.006218224759159858</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.2474620844795761</v>
+        <v>-0.00220609524557065</v>
       </c>
       <c r="C100">
-        <v>0.3207264094004521</v>
+        <v>0.002456708313144915</v>
       </c>
       <c r="D100">
-        <v>-0.3178159325461419</v>
+        <v>-0.00189168245667174</v>
       </c>
       <c r="E100">
-        <v>-0.5228626213726995</v>
+        <v>-0.004712016282969817</v>
       </c>
       <c r="F100">
-        <v>-0.4777328172079054</v>
+        <v>-0.002735743215406555</v>
       </c>
       <c r="G100">
-        <v>-0.4284883489581537</v>
+        <v>-0.004744557803736737</v>
       </c>
       <c r="H100">
-        <v>0.1041423764685099</v>
+        <v>-0.002196423631638514</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.1220793908934625</v>
+        <v>-0.00231392784917317</v>
       </c>
       <c r="C101">
-        <v>0.1582986102907434</v>
+        <v>0.002047791774941754</v>
       </c>
       <c r="D101">
-        <v>-0.1185447832813892</v>
+        <v>-0.002591373045526922</v>
       </c>
       <c r="E101">
-        <v>-0.3022649372263931</v>
+        <v>-0.005314689678122942</v>
       </c>
       <c r="F101">
-        <v>-0.1670639680257787</v>
+        <v>-0.002457643038755868</v>
       </c>
       <c r="G101">
-        <v>-0.1587048343268931</v>
+        <v>-0.004684316907564526</v>
       </c>
       <c r="H101">
-        <v>-0.06103060598332077</v>
+        <v>-0.001652812748453278</v>
       </c>
     </row>
   </sheetData>
